--- a/xl_files/Q2d_results_Batman begin_.xlsx
+++ b/xl_files/Q2d_results_Batman begin_.xlsx
@@ -1,37 +1,135 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliyahu\Desktop\education\new_soccial_networkx\social_network\xl_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE348404-EAEB-4B78-B793-645A359E3A99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+  <si>
+    <t>MultiDiGraph() closeness_centrality:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiDiGraph() degree_centrality: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiDiGraph() pagerank algorithm: </t>
+  </si>
+  <si>
+    <t>MultiGraph() closeness_centrality:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiGraph() degree_centrality: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiGraph() pagerank algorithm: </t>
+  </si>
+  <si>
+    <t>DiGraph() closeness_centrality:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DiGraph() degree_centrality: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DiGraph() pagerank algorithm: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DiGraph() betweenness_centrality: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DiGraph() eigenvector_centrality: </t>
+  </si>
+  <si>
+    <t>Graph() closeness_centrality:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph() degree_centrality: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph() pagerank algorithm: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph() betweenness_centrality: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph() eigenvector_centrality: </t>
+  </si>
+  <si>
+    <t>[('BATMAN', 0.6127504553734062), ('GORDON', 0.4634247141479542), ('RACHEL', 0.45576480151740956), ('CRANE', 0.4520290244557914)]</t>
+  </si>
+  <si>
+    <t>[('BATMAN', 11.934426229508198), ('DUCARD', 5.295081967213115), ('RACHEL', 4.114754098360656), ('ALFRED', 3.0327868852459017)]</t>
+  </si>
+  <si>
+    <t>[('BATMAN', 0.2011590136534753), ('DUCARD', 0.0799323409057845), ('RACHEL', 0.07839241457830835), ('CRANE', 0.06266750710616142)]</t>
+  </si>
+  <si>
+    <t>[('BATMAN', 0.6793520686963309), ('GORDON', 0.5050050776149717), ('RACHEL', 0.4962223806129722), ('ALFRED', 0.48360655737704916)]</t>
+  </si>
+  <si>
+    <t>[('BATMAN', 0.21847249708717387), ('RACHEL', 0.07403896120854088), ('DUCARD', 0.07252078889899242), ('CRANE', 0.050884504317952134)]</t>
+  </si>
+  <si>
+    <t>[('BATMAN', 0.9836065573770493), ('RACHEL', 0.4098360655737705), ('GORDON', 0.39344262295081966), ('CRANE', 0.39344262295081966)]</t>
+  </si>
+  <si>
+    <t>[('BATMAN', 0.11487600333349778), ('CRANE', 0.05808467344390134), ('RACHEL', 0.05312785019954409), ('GORDON', 0.047602622035813814)]</t>
+  </si>
+  <si>
+    <t>[('BATMAN', 0.5613667707520168), ('FLASS', 0.10820582877959926), ('GORDON', 0.10740567265157423), ('RACHEL', 0.0998604605776737)]</t>
+  </si>
+  <si>
+    <t>[('BATMAN', 0.48522766062199424), ('RACHEL', 0.3040275097082475), ('GORDON', 0.30202229563679467), ('CRANE', 0.2912340252064025)]</t>
+  </si>
+  <si>
+    <t>[('BATMAN', 0.6229508196721312), ('RACHEL', 0.27868852459016397), ('GORDON', 0.24590163934426232), ('CRANE', 0.24590163934426232)]</t>
+  </si>
+  <si>
+    <t>[('BATMAN', 0.1142947355540535), ('RACHEL', 0.04699491992113648), ('CRANE', 0.04393649731882286), ('GORDON', 0.04320048822938718)]</t>
+  </si>
+  <si>
+    <t>[('BATMAN', 0.6001689218492495), ('FLASS', 0.13857750021684448), ('GORDON', 0.09819888975626681), ('CRANE', 0.08424971810217713)]</t>
+  </si>
+  <si>
+    <t>[('BATMAN', 0.4983480140952328), ('RACHEL', 0.3013640730319415), ('ALFRED', 0.27997748851080134), ('GORDON', 0.2742626192742244)]</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +144,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,83 +163,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -421,181 +468,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="118.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MultiDiGraph() closeness_centrality:</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MultiDiGraph() degree_centrality: </t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MultiDiGraph() pagerank algorithm: </t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>MultiGraph() closeness_centrality:</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MultiGraph() degree_centrality: </t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MultiGraph() pagerank algorithm: </t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>DiGraph() closeness_centrality:</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DiGraph() degree_centrality: </t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DiGraph() pagerank algorithm: </t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DiGraph() betweenness_centrality: </t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DiGraph() eigenvector_centrality: </t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Graph() closeness_centrality:</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Graph() degree_centrality: </t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Graph() pagerank algorithm: </t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Graph() betweenness_centrality: </t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Graph() eigenvector_centrality: </t>
-        </is>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>[('BATMAN', 0.6127504553734062), ('GORDON', 0.4634247141479542), ('RACHEL', 0.45576480151740956), ('CRANE', 0.4520290244557914)]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[('BATMAN', 11.934426229508198), ('DUCARD', 5.295081967213115), ('RACHEL', 4.114754098360656), ('ALFRED', 3.0327868852459017)]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[('BATMAN', 0.2011590136534753), ('DUCARD', 0.0799323409057845), ('RACHEL', 0.07839241457830835), ('CRANE', 0.06266750710616142)]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[('BATMAN', 0.6793520686963309), ('GORDON', 0.5050050776149717), ('RACHEL', 0.4962223806129722), ('ALFRED', 0.48360655737704916)]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[('BATMAN', 11.934426229508198), ('DUCARD', 5.295081967213115), ('RACHEL', 4.114754098360656), ('ALFRED', 3.0327868852459017)]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[('BATMAN', 0.21847249708717387), ('RACHEL', 0.07403896120854088), ('DUCARD', 0.07252078889899242), ('CRANE', 0.050884504317952134)]</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[('BATMAN', 0.6127504553734062), ('GORDON', 0.4634247141479542), ('RACHEL', 0.45576480151740956), ('CRANE', 0.4520290244557914)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>[('BATMAN', 0.9836065573770493), ('RACHEL', 0.4098360655737705), ('GORDON', 0.39344262295081966), ('CRANE', 0.39344262295081966)]</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>[('BATMAN', 0.11487600333349778), ('CRANE', 0.05808467344390134), ('RACHEL', 0.05312785019954409), ('GORDON', 0.047602622035813814)]</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>[('BATMAN', 0.5613667707520168), ('FLASS', 0.10820582877959926), ('GORDON', 0.10740567265157423), ('RACHEL', 0.0998604605776737)]</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>[('BATMAN', 0.48522766062199424), ('RACHEL', 0.3040275097082475), ('GORDON', 0.30202229563679467), ('CRANE', 0.2912340252064025)]</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>[('BATMAN', 0.6793520686963309), ('GORDON', 0.5050050776149717), ('RACHEL', 0.4962223806129722), ('ALFRED', 0.48360655737704916)]</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>[('BATMAN', 0.6229508196721312), ('RACHEL', 0.27868852459016397), ('GORDON', 0.24590163934426232), ('CRANE', 0.24590163934426232)]</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>[('BATMAN', 0.1142947355540535), ('RACHEL', 0.04699491992113648), ('CRANE', 0.04393649731882286), ('GORDON', 0.04320048822938718)]</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[('BATMAN', 0.6001689218492495), ('FLASS', 0.13857750021684448), ('GORDON', 0.09819888975626681), ('CRANE', 0.08424971810217713)]</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>[('BATMAN', 0.4983480140952328), ('RACHEL', 0.3013640730319415), ('ALFRED', 0.27997748851080134), ('GORDON', 0.2742626192742244)]</t>
-        </is>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/xl_files/Q2d_results_Batman begin_.xlsx
+++ b/xl_files/Q2d_results_Batman begin_.xlsx
@@ -1,135 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliyahu\Desktop\education\new_soccial_networkx\social_network\xl_files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE348404-EAEB-4B78-B793-645A359E3A99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
-  <si>
-    <t>MultiDiGraph() closeness_centrality:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MultiDiGraph() degree_centrality: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MultiDiGraph() pagerank algorithm: </t>
-  </si>
-  <si>
-    <t>MultiGraph() closeness_centrality:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MultiGraph() degree_centrality: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MultiGraph() pagerank algorithm: </t>
-  </si>
-  <si>
-    <t>DiGraph() closeness_centrality:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DiGraph() degree_centrality: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DiGraph() pagerank algorithm: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DiGraph() betweenness_centrality: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DiGraph() eigenvector_centrality: </t>
-  </si>
-  <si>
-    <t>Graph() closeness_centrality:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph() degree_centrality: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph() pagerank algorithm: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph() betweenness_centrality: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph() eigenvector_centrality: </t>
-  </si>
-  <si>
-    <t>[('BATMAN', 0.6127504553734062), ('GORDON', 0.4634247141479542), ('RACHEL', 0.45576480151740956), ('CRANE', 0.4520290244557914)]</t>
-  </si>
-  <si>
-    <t>[('BATMAN', 11.934426229508198), ('DUCARD', 5.295081967213115), ('RACHEL', 4.114754098360656), ('ALFRED', 3.0327868852459017)]</t>
-  </si>
-  <si>
-    <t>[('BATMAN', 0.2011590136534753), ('DUCARD', 0.0799323409057845), ('RACHEL', 0.07839241457830835), ('CRANE', 0.06266750710616142)]</t>
-  </si>
-  <si>
-    <t>[('BATMAN', 0.6793520686963309), ('GORDON', 0.5050050776149717), ('RACHEL', 0.4962223806129722), ('ALFRED', 0.48360655737704916)]</t>
-  </si>
-  <si>
-    <t>[('BATMAN', 0.21847249708717387), ('RACHEL', 0.07403896120854088), ('DUCARD', 0.07252078889899242), ('CRANE', 0.050884504317952134)]</t>
-  </si>
-  <si>
-    <t>[('BATMAN', 0.9836065573770493), ('RACHEL', 0.4098360655737705), ('GORDON', 0.39344262295081966), ('CRANE', 0.39344262295081966)]</t>
-  </si>
-  <si>
-    <t>[('BATMAN', 0.11487600333349778), ('CRANE', 0.05808467344390134), ('RACHEL', 0.05312785019954409), ('GORDON', 0.047602622035813814)]</t>
-  </si>
-  <si>
-    <t>[('BATMAN', 0.5613667707520168), ('FLASS', 0.10820582877959926), ('GORDON', 0.10740567265157423), ('RACHEL', 0.0998604605776737)]</t>
-  </si>
-  <si>
-    <t>[('BATMAN', 0.48522766062199424), ('RACHEL', 0.3040275097082475), ('GORDON', 0.30202229563679467), ('CRANE', 0.2912340252064025)]</t>
-  </si>
-  <si>
-    <t>[('BATMAN', 0.6229508196721312), ('RACHEL', 0.27868852459016397), ('GORDON', 0.24590163934426232), ('CRANE', 0.24590163934426232)]</t>
-  </si>
-  <si>
-    <t>[('BATMAN', 0.1142947355540535), ('RACHEL', 0.04699491992113648), ('CRANE', 0.04393649731882286), ('GORDON', 0.04320048822938718)]</t>
-  </si>
-  <si>
-    <t>[('BATMAN', 0.6001689218492495), ('FLASS', 0.13857750021684448), ('GORDON', 0.09819888975626681), ('CRANE', 0.08424971810217713)]</t>
-  </si>
-  <si>
-    <t>[('BATMAN', 0.4983480140952328), ('RACHEL', 0.3013640730319415), ('ALFRED', 0.27997748851080134), ('GORDON', 0.2742626192742244)]</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -144,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -163,24 +57,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -468,116 +421,427 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="118.59765625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MultiDiGraph() closeness_centrality:</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MultiDiGraph() degree_centrality: </t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MultiDiGraph() pagerank algorithm: </t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MultiGraph() closeness_centrality:</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MultiGraph() degree_centrality: </t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MultiGraph() pagerank algorithm: </t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>DiGraph() closeness_centrality:</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DiGraph() degree_centrality: </t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DiGraph() pagerank algorithm: </t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DiGraph() betweenness_centrality: </t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DiGraph() eigenvector_centrality: </t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Graph() closeness_centrality:</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Graph() degree_centrality: </t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Graph() pagerank algorithm: </t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Graph() betweenness_centrality: </t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Graph() eigenvector_centrality: </t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" t="s">
-        <v>28</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>('BATMAN', 0.6127504553734062)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>('BATMAN', 11.934426229508198)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>('BATMAN', 0.2011590136534753)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>('BATMAN', 0.6793520686963309)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>('BATMAN', 11.934426229508198)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>('BATMAN', 0.21847249708717387)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>('BATMAN', 0.6127504553734062)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>('BATMAN', 0.9836065573770493)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>('BATMAN', 0.11487600333349778)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>('BATMAN', 0.5613667707520168)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>('BATMAN', 0.48522766062199424)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>('BATMAN', 0.6793520686963309)</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>('BATMAN', 0.6229508196721312)</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>('BATMAN', 0.1142947355540535)</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>('BATMAN', 0.6001689218492495)</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>('BATMAN', 0.4983480140952328)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>('GORDON', 0.4634247141479542)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>('DUCARD', 5.295081967213115)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>('DUCARD', 0.0799323409057845)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>('GORDON', 0.5050050776149717)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>('DUCARD', 5.295081967213115)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>('RACHEL', 0.07403896120854088)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>('GORDON', 0.4634247141479542)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>('RACHEL', 0.4098360655737705)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>('CRANE', 0.05808467344390134)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>('FLASS', 0.10820582877959926)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>('RACHEL', 0.3040275097082475)</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>('GORDON', 0.5050050776149717)</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>('RACHEL', 0.27868852459016397)</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>('RACHEL', 0.04699491992113648)</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>('FLASS', 0.13857750021684448)</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>('RACHEL', 0.3013640730319415)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>('RACHEL', 0.45576480151740956)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>('RACHEL', 4.114754098360656)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>('RACHEL', 0.07839241457830835)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>('RACHEL', 0.4962223806129722)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>('RACHEL', 4.114754098360656)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>('DUCARD', 0.07252078889899242)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>('RACHEL', 0.45576480151740956)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>('GORDON', 0.39344262295081966)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>('RACHEL', 0.05312785019954409)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>('GORDON', 0.10740567265157423)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>('GORDON', 0.30202229563679467)</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>('RACHEL', 0.4962223806129722)</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>('GORDON', 0.24590163934426232)</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>('CRANE', 0.04393649731882286)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>('GORDON', 0.09819888975626681)</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>('ALFRED', 0.27997748851080134)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>('CRANE', 0.4520290244557914)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>('ALFRED', 3.0327868852459017)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>('CRANE', 0.06266750710616142)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>('ALFRED', 0.48360655737704916)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>('ALFRED', 3.0327868852459017)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>('CRANE', 0.050884504317952134)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>('CRANE', 0.4520290244557914)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>('CRANE', 0.39344262295081966)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>('GORDON', 0.047602622035813814)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>('RACHEL', 0.0998604605776737)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>('CRANE', 0.2912340252064025)</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>('ALFRED', 0.48360655737704916)</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>('CRANE', 0.24590163934426232)</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>('GORDON', 0.04320048822938718)</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>('CRANE', 0.08424971810217713)</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>('GORDON', 0.2742626192742244)</t>
+        </is>
       </c>
     </row>
   </sheetData>
